--- a/przypadki_testowe/pokazowy/G.xlsx
+++ b/przypadki_testowe/pokazowy/G.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deida\Desktop\STUDIA\MMWD\MMWD\przypadki_testowe\pokazowy2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="1308" yWindow="12" windowWidth="16092" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,17 +79,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Pakiet Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -122,9 +135,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -156,9 +169,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -190,9 +204,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Pakiet Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -365,14 +380,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -422,7 +439,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -433,7 +450,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -457,7 +474,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -472,7 +489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>5</v>
       </c>
@@ -522,7 +539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -572,9 +589,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -586,13 +603,13 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -604,7 +621,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -622,7 +639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0</v>
       </c>
@@ -633,7 +650,7 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -645,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -672,7 +689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0</v>
       </c>
@@ -698,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -722,7 +739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0</v>
       </c>
@@ -733,7 +750,7 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -745,13 +762,13 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -772,7 +789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0</v>
       </c>
@@ -786,19 +803,19 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -822,7 +839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0</v>
       </c>
@@ -839,13 +856,13 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -872,7 +889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>0</v>
       </c>
@@ -892,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -904,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -922,7 +939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>0</v>
       </c>
@@ -933,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -951,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -972,9 +989,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1004,13 +1021,13 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1022,7 +1039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>0</v>
       </c>
@@ -1057,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1072,7 +1089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>5</v>
       </c>
@@ -1110,7 +1127,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1122,7 +1139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>0</v>
       </c>
@@ -1172,7 +1189,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>0</v>
       </c>
